--- a/FiguresAndTablesAug2017/EmpiricalResults.xlsx
+++ b/FiguresAndTablesAug2017/EmpiricalResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="23080" yWindow="580" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="EmpiricalResults" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="90">
   <si>
     <t>Dataset</t>
   </si>
@@ -65,15 +65,6 @@
     <t>Zero</t>
   </si>
   <si>
-    <t>0 (0, 0.15)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.99)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.57)</t>
-  </si>
-  <si>
     <t>Nicotiana</t>
   </si>
   <si>
@@ -89,15 +80,9 @@
     <t>SE^2</t>
   </si>
   <si>
-    <t>1.8e+308</t>
-  </si>
-  <si>
     <t>∆AICc</t>
   </si>
   <si>
-    <t>Cichlid Average</t>
-  </si>
-  <si>
     <t>σ2</t>
   </si>
   <si>
@@ -113,307 +98,205 @@
     <t>variance over tree</t>
   </si>
   <si>
-    <t>0 (0, 0.02)</t>
-  </si>
-  <si>
-    <t>1.94 (1.67, 2.24)</t>
-  </si>
-  <si>
     <t>1 (1, 1)</t>
   </si>
   <si>
     <t>0 (0, 0)</t>
   </si>
   <si>
-    <t>0 (0, 0.16)</t>
-  </si>
-  <si>
-    <t>2 (1.72, 2.32)</t>
-  </si>
-  <si>
-    <t>0.75 (0.43, 1.27)</t>
-  </si>
-  <si>
-    <t>1.94 (1.68, 2.24)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.81)</t>
-  </si>
-  <si>
-    <t>2.01 (1.73, 2.3)</t>
-  </si>
-  <si>
-    <t>0.75 (0.44, 1.28)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.52)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.13)</t>
-  </si>
-  <si>
-    <t>2.16 (1.76, 2.51)</t>
-  </si>
-  <si>
-    <t>0.56 (0.1, 0.74)</t>
-  </si>
-  <si>
     <t>0 (0, 1)</t>
   </si>
   <si>
-    <t>0.32 (0.01, 0.54)</t>
-  </si>
-  <si>
-    <t>0.12 (0.07, 0.22)</t>
-  </si>
-  <si>
-    <t>2.17 (1.37, 2.96)</t>
-  </si>
-  <si>
-    <t>0.79 (0.48, 1.44)</t>
-  </si>
-  <si>
-    <t>0.11 (0.07, 0.2)</t>
-  </si>
-  <si>
-    <t>2.18 (1.44, 2.92)</t>
-  </si>
-  <si>
-    <t>0.64 (0.37, 1.12)</t>
-  </si>
-  <si>
-    <t>0.72 (0.45, 1.29)</t>
-  </si>
-  <si>
-    <t>2.22 (1.72, 2.64)</t>
-  </si>
-  <si>
-    <t>0.7 (0.43, 1.12)</t>
-  </si>
-  <si>
-    <t>0.54 (0.05, 0.72)</t>
-  </si>
-  <si>
-    <t>0.3 (0, 0.51)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.12)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.76)</t>
-  </si>
-  <si>
-    <t>0.56 (0.13, 0.74)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.79)</t>
-  </si>
-  <si>
-    <t>0.32 (0.02, 0.54)</t>
-  </si>
-  <si>
-    <t>0.12 (0.07, 0.21)</t>
-  </si>
-  <si>
-    <t>2.17 (1.43, 2.94)</t>
-  </si>
-  <si>
-    <t>0 (0, 1.13)</t>
-  </si>
-  <si>
-    <t>0.79 (0.46, 1.4)</t>
-  </si>
-  <si>
-    <t>0.11 (0.07, 0.19)</t>
-  </si>
-  <si>
-    <t>2.18 (1.51, 2.82)</t>
-  </si>
-  <si>
-    <t>0.64 (0.39, 1.13)</t>
-  </si>
-  <si>
-    <t>0 (0, 0.58)</t>
-  </si>
-  <si>
-    <t>0.72 (0.46, 1.25)</t>
-  </si>
-  <si>
-    <t>0.1 (0.02, 0.18)</t>
-  </si>
-  <si>
-    <t>2.18 (1.57, 2.83)</t>
-  </si>
-  <si>
-    <t>0.64 (0.39, 1.17)</t>
-  </si>
-  <si>
-    <t>0.11 (0.03, 0.63)</t>
-  </si>
-  <si>
-    <t>0.68 (0.13, 1.21)</t>
-  </si>
-  <si>
-    <t>0.01 (0, 0.39)</t>
-  </si>
-  <si>
-    <t>0.01 (0.01, 0.04)</t>
-  </si>
-  <si>
-    <t>1.99 (1.67, 2.33)</t>
-  </si>
-  <si>
-    <t>0.91 (0.82, 1.08)</t>
-  </si>
-  <si>
-    <t>0.04 (0.01, 0.05)</t>
-  </si>
-  <si>
-    <t>0.06 (0.03, 0.3)</t>
-  </si>
-  <si>
-    <t>0.02 (0, 0.04)</t>
-  </si>
-  <si>
-    <t>0.06 (0.03, 0.06)</t>
-  </si>
-  <si>
-    <t>2.11 (2.02, 2.83)</t>
-  </si>
-  <si>
-    <t>3.05 (2.27, 3.59)</t>
-  </si>
-  <si>
-    <t>0.57 (0.46, 0.61)</t>
-  </si>
-  <si>
-    <t>0.8 (0.46, 0.88)</t>
-  </si>
-  <si>
-    <t>0.33 (0.21, 0.37)</t>
-  </si>
-  <si>
-    <t>0.02 (0, 0.05)</t>
-  </si>
-  <si>
-    <t>2.56 (2.11, 3)</t>
-  </si>
-  <si>
-    <t>0.71 (0.56, 0.95)</t>
-  </si>
-  <si>
-    <t>0.29 (0.03, 0.63)</t>
-  </si>
-  <si>
-    <t>0.51 (0.31, 0.9)</t>
-  </si>
-  <si>
-    <t>0.05 (0.01, 0.08)</t>
-  </si>
-  <si>
-    <t>2.37 (1.89, 3.04)</t>
-  </si>
-  <si>
-    <t>3.3 (1.06, 5.89)</t>
-  </si>
-  <si>
-    <t>0.17 (0.12, 2.5)</t>
-  </si>
-  <si>
-    <t>0.43 (0.37, 0.81)</t>
-  </si>
-  <si>
-    <t>0.68 (0.17, 1.1)</t>
-  </si>
-  <si>
-    <t>0.19 (0.14, 0.65)</t>
-  </si>
-  <si>
-    <t>0.03 (0.01, 0.07)</t>
-  </si>
-  <si>
-    <t>2.52 (2.03, 3)</t>
-  </si>
-  <si>
-    <t>0.77 (0.2, 7.7)</t>
-  </si>
-  <si>
-    <t>0.64 (0.42, 0.89)</t>
-  </si>
-  <si>
-    <t>0.4 (0.12, 0.91)</t>
-  </si>
-  <si>
-    <t>0.41 (0.18, 0.79)</t>
-  </si>
-  <si>
-    <t>0.26 (0.18, 0.29)</t>
-  </si>
-  <si>
-    <t>2.03 (1.82, 3.17)</t>
-  </si>
-  <si>
-    <t>3.48 (2.87, 4.62)</t>
-  </si>
-  <si>
-    <t>2.43 (1.63, 2.74)</t>
-  </si>
-  <si>
-    <t>3.59 (2.39, 4.03)</t>
-  </si>
-  <si>
-    <t>0.24 (0.16, 0.34)</t>
-  </si>
-  <si>
-    <t>2.57 (1.2, 3.69)</t>
-  </si>
-  <si>
-    <t>3.54 (2.04, 17.62)</t>
-  </si>
-  <si>
-    <t>3.25 (2.2, 4.6)</t>
-  </si>
-  <si>
-    <t>1.23 (0, 10)</t>
-  </si>
-  <si>
-    <t>3.24 (-2.67, 5.68e+307)</t>
-  </si>
-  <si>
-    <t>6.87 (0, 99.99)</t>
-  </si>
-  <si>
-    <t>16.85 (0, 136.68)</t>
-  </si>
-  <si>
-    <t>1.73 (0, 10)</t>
-  </si>
-  <si>
-    <t>-0.79 (-2.67, 9.07e+306)</t>
-  </si>
-  <si>
-    <t>23.62 (0, 136.68)</t>
-  </si>
-  <si>
-    <t>2.14 (2.03, 2.85)</t>
-  </si>
-  <si>
-    <t>2.91 (2.16, 3.45)</t>
-  </si>
-  <si>
-    <t>0.02 (0.01, 0.2)</t>
-  </si>
-  <si>
-    <t>0.58 (0.46, 0.63)</t>
-  </si>
-  <si>
-    <t>0.76 (0.42, 0.87)</t>
-  </si>
-  <si>
-    <t>0.34 (0.21, 0.41)</t>
-  </si>
-  <si>
-    <t>Nicotiana Average</t>
+    <t>1.9 (1.7, 2.2)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.2)</t>
+  </si>
+  <si>
+    <t>2 (1.7, 2.3)</t>
+  </si>
+  <si>
+    <t>0.7 (0.4, 1.3)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.8)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.1)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.4)</t>
+  </si>
+  <si>
+    <t>2.2 (1.8, 2.6)</t>
+  </si>
+  <si>
+    <t>0.6 (0, 0.7)</t>
+  </si>
+  <si>
+    <t>0.1 (0.1, 0.2)</t>
+  </si>
+  <si>
+    <t>2.2 (1.4, 3)</t>
+  </si>
+  <si>
+    <t>0.8 (0.5, 1.4)</t>
+  </si>
+  <si>
+    <t>2.2 (1.4, 2.9)</t>
+  </si>
+  <si>
+    <t>0.6 (0.4, 1.1)</t>
+  </si>
+  <si>
+    <t>0.7 (0.5, 1.3)</t>
+  </si>
+  <si>
+    <t>2.2 (1.7, 2.7)</t>
+  </si>
+  <si>
+    <t>0.7 (0.4, 1.2)</t>
+  </si>
+  <si>
+    <t>0.5 (0.1, 0.7)</t>
+  </si>
+  <si>
+    <t>2.2 (1.8, 2.5)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.7)</t>
+  </si>
+  <si>
+    <t>0.6 (0.1, 0.7)</t>
+  </si>
+  <si>
+    <t>0 (0, 1.1)</t>
+  </si>
+  <si>
+    <t>2.2 (1.5, 2.9)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.6)</t>
+  </si>
+  <si>
+    <t>0.7 (0.5, 1.2)</t>
+  </si>
+  <si>
+    <t>0 (0, 0.5)</t>
+  </si>
+  <si>
+    <t>0.5 (0.3, 0.7)</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>0.9 (0.8, 1.1)</t>
+  </si>
+  <si>
+    <t>0.1 (0, 0.3)</t>
+  </si>
+  <si>
+    <t>0.3 (0, 0.5)</t>
+  </si>
+  <si>
+    <t>0.3 (0.1, 0.5)</t>
+  </si>
+  <si>
+    <t>0.1 (0, 0.1)</t>
+  </si>
+  <si>
+    <t>2.8 (2.1, 3.1)</t>
+  </si>
+  <si>
+    <t>0.5 (0.3, 0.5)</t>
+  </si>
+  <si>
+    <t>1.1 (0.6, 1.2)</t>
+  </si>
+  <si>
+    <t>0.3 (0.1, 0.3)</t>
+  </si>
+  <si>
+    <t>2.6 (2, 3.3)</t>
+  </si>
+  <si>
+    <t>1.3 (0.4, 3.7)</t>
+  </si>
+  <si>
+    <t>0.4 (0.3, 0.5)</t>
+  </si>
+  <si>
+    <t>0.9 (0.6, 1.2)</t>
+  </si>
+  <si>
+    <t>0.2 (0.1, 0.3)</t>
+  </si>
+  <si>
+    <t>2.6 (2, 3.1)</t>
+  </si>
+  <si>
+    <t>0.2 (0.1, 0.2)</t>
+  </si>
+  <si>
+    <t>2.6 (1.9, 3.2)</t>
+  </si>
+  <si>
+    <t>1 (0.5, 3.8)</t>
+  </si>
+  <si>
+    <t>0.8 (0.6, 1.3)</t>
+  </si>
+  <si>
+    <t>0.2 (0.2, 0.3)</t>
+  </si>
+  <si>
+    <t>2.8 (2.3, 3.2)</t>
+  </si>
+  <si>
+    <t>2.9 (2.4, 3.5)</t>
+  </si>
+  <si>
+    <t>0.2 (0.2, 0.2)</t>
+  </si>
+  <si>
+    <t>3 (1.8, 3.4)</t>
+  </si>
+  <si>
+    <t>0.8 (0.6, 1.2)</t>
+  </si>
+  <si>
+    <t>2.5 (2.1, 3.3)</t>
+  </si>
+  <si>
+    <t>2.7 (1.6, 4)</t>
+  </si>
+  <si>
+    <t>1.1 (0.3, 7.4)</t>
+  </si>
+  <si>
+    <t>3 (2.3, 4.1)</t>
+  </si>
+  <si>
+    <t>0.3 (0.2, 0.3)</t>
+  </si>
+  <si>
+    <t>2.4 (1.6, 3.7)</t>
+  </si>
+  <si>
+    <t>1.6 (0.3, 14.9)</t>
+  </si>
+  <si>
+    <t>1.1 (0.1, 1.6)</t>
+  </si>
+  <si>
+    <t>3.6 (2.2, 4.4)</t>
+  </si>
+  <si>
+    <t>2.8 (2, 3.1)</t>
+  </si>
+  <si>
+    <t>1 (0.9, 1.4)</t>
   </si>
 </sst>
 </file>
@@ -827,7 +710,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -865,31 +748,31 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -903,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>21.48</v>
+        <v>21.5</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -912,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -951,31 +834,31 @@
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G3" s="2">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -987,37 +870,37 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>21.48</v>
+        <v>21.5</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G4" s="2">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1035,31 +918,31 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>4.3600000000000003</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G5" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1071,37 +954,37 @@
         <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>22.78</v>
+        <v>22.8</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>5.15</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G6" s="2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1113,37 +996,37 @@
         <v>11</v>
       </c>
       <c r="D7" s="2">
-        <v>24.23</v>
+        <v>24.2</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="G7" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1155,37 +1038,37 @@
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <v>22.99</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="2">
-        <v>5.57</v>
+        <v>5.6</v>
       </c>
       <c r="G8" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1197,37 +1080,37 @@
         <v>10</v>
       </c>
       <c r="D9" s="2">
-        <v>21.95</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="G9" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1239,37 +1122,37 @@
         <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>22.78</v>
+        <v>22.8</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="2">
-        <v>7.92</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1281,37 +1164,37 @@
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>24.23</v>
+        <v>24.2</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>8.06</v>
+        <v>8.1</v>
       </c>
       <c r="G11" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1323,37 +1206,37 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>22.99</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>8.34</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G12" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1365,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>22.97</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>11.35</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1409,237 +1292,237 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2">
-        <v>67.03</v>
+        <v>45.7</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>71.08</v>
+        <v>46.5</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>5.77</v>
+        <v>3.8</v>
       </c>
       <c r="G16" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>69.599999999999994</v>
+        <v>46.6</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
-        <v>7.53</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G17" s="2">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>70.87</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>7.68</v>
+        <v>7.3</v>
       </c>
       <c r="G18" s="2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>93</v>
+        <v>70.7</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2">
-        <v>51.93</v>
+        <v>47.8</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1651,37 +1534,37 @@
         <v>11</v>
       </c>
       <c r="D20" s="2">
-        <v>97.5</v>
+        <v>70.8</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>58.61</v>
+        <v>50.3</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1693,85 +1576,85 @@
         <v>11</v>
       </c>
       <c r="D21" s="6">
-        <v>8.9884656743115795E+307</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>20</v>
+      <c r="F21" s="6">
+        <v>53.3</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="5">
-        <v>8.9884656743115795E+307</v>
+        <v>72.3</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="F22" s="5">
+        <v>55.5</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="7" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1779,25 +1662,25 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
